--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pomc-Mc2r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pomc-Mc2r.xlsx
@@ -525,16 +525,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.55477</v>
+        <v>0.3971766666666667</v>
       </c>
       <c r="H2">
-        <v>4.66431</v>
+        <v>1.19153</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.3343320399766667</v>
+        <v>0.08540741408555556</v>
       </c>
       <c r="R2">
-        <v>3.00898835979</v>
+        <v>0.76866672677</v>
       </c>
       <c r="S2">
         <v>1</v>
